--- a/biology/Médecine/Peter_Voswinckel/Peter_Voswinckel.xlsx
+++ b/biology/Médecine/Peter_Voswinckel/Peter_Voswinckel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peter Voswinckel (né le 9 novembre 1951 à Soest) est un historien médical allemand[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter Voswinckel (né le 9 novembre 1951 à Soest) est un historien médical allemand
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voswinckel étudie à l'école en Soest. Après avoir obtenu son diplôme d'études secondaires en 1970, il commence à étudier l'histoire et la philosophie ainsi que la médecine humaine. L'approbation a lieu en 1981. Voswinckel travaille d'abord comme médecin assistant en hématologie et oncologie à Munich et Karlsruhe. En 1985, il commence à travailler dans le domaine de l'histoire médicale et termine son habilitation à Aix-la-Chapelle en 1990. De 1992 à 2002, il travaille comme assistant de recherche à l'Institut d'histoire de la médecine et des sciences de Lübeck[2].
-Ses principaux intérêts de recherche concernaient les domaines de la biographie médicale et de la recherche sur l'émigration[3].
-En 1997, Voswinckel est nommé professeur adjoint à l'Université RWTH d'Aix-la-Chapelle. Après 2002, il travaille d'abord comme historien médical indépendant et de 2012 à 2021, il est directeur du Centre de recherche historique et des archives de la Société allemande d'hématologie et d'oncologie médicale (de) à Berlin[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voswinckel étudie à l'école en Soest. Après avoir obtenu son diplôme d'études secondaires en 1970, il commence à étudier l'histoire et la philosophie ainsi que la médecine humaine. L'approbation a lieu en 1981. Voswinckel travaille d'abord comme médecin assistant en hématologie et oncologie à Munich et Karlsruhe. En 1985, il commence à travailler dans le domaine de l'histoire médicale et termine son habilitation à Aix-la-Chapelle en 1990. De 1992 à 2002, il travaille comme assistant de recherche à l'Institut d'histoire de la médecine et des sciences de Lübeck.
+Ses principaux intérêts de recherche concernaient les domaines de la biographie médicale et de la recherche sur l'émigration.
+En 1997, Voswinckel est nommé professeur adjoint à l'Université RWTH d'Aix-la-Chapelle. Après 2002, il travaille d'abord comme historien médical indépendant et de 2012 à 2021, il est directeur du Centre de recherche historique et des archives de la Société allemande d'hématologie et d'oncologie médicale (de) à Berlin.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voswinckel est le plus jeune fils de l'homme d'affaires Carl Voswinckel (1902-1967) et de son épouse Käthe Voswinckel, née Siepmann, (1910-1994) ; il est le petit-fils du forgeron Emil Siepmann (de) (1863-1950)[5]. Voswinckel est marié et père de deux enfants ; Il vit à nouveau dans le Schleswig-Holstein depuis 2020.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voswinckel est le plus jeune fils de l'homme d'affaires Carl Voswinckel (1902-1967) et de son épouse Käthe Voswinckel, née Siepmann, (1910-1994) ; il est le petit-fils du forgeron Emil Siepmann (de) (1863-1950). Voswinckel est marié et père de deux enfants ; Il vit à nouveau dans le Schleswig-Holstein depuis 2020.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Der Fall Seveso. Kurzfassung eines Seminarvortrags mit Bildern. Seminar über Umweltprobleme mit Besonderer Berücksichtigung der Strahlenbelastung, Université de Münster, WS 76/77. Institut für Strahlenbiologie. Klartext, Brême, 1977.
 Arzt und Auto. Das Auto und seine Welt im Spiegel des Deutschen Ärzteblattes (de) von 1907 bis 1975 (= Studien zur Medizin-, Kunst- und Literaturgeschichte. Bd. 4). Murken-Altrogge, Münster, 1981,  (ISBN 3-921801-06-0). doi:10.4126/FRL01-006427234.
